--- a/JOGOS/2023-07-29_under4_5.xlsx
+++ b/JOGOS/2023-07-29_under4_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>ARGENTINA - PRIMERA NACIONAL</t>
+  </si>
+  <si>
+    <t>Deportivo Moron</t>
+  </si>
+  <si>
+    <t>Gimnasia Mendoza</t>
   </si>
 </sst>
 </file>
@@ -404,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +466,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>1.91</v>
+      </c>
+      <c r="H2">
+        <v>3.2</v>
+      </c>
+      <c r="I2">
+        <v>4.75</v>
+      </c>
+      <c r="J2">
+        <v>2.7</v>
+      </c>
+      <c r="K2">
+        <v>2.38</v>
+      </c>
+      <c r="L2">
+        <v>2.7</v>
+      </c>
+      <c r="M2">
+        <v>2.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
